--- a/average.xlsx
+++ b/average.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10B6FD3D-6BD7-4203-9224-8CE062F79B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68A47E9-EB08-4473-A863-213F1B9B1671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2400" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D48B38-CB74-437F-9CA6-583EC3D3D74A}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="13836" windowHeight="7176" xr2:uid="{F0D48B38-CB74-437F-9CA6-583EC3D3D74A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,19 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
-  <si>
-    <t>Java Script</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>HTML/CSS</t>
-  </si>
-  <si>
-    <t>Ms Project</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>API</t>
   </si>
@@ -57,27 +45,18 @@
     <t>Documentation</t>
   </si>
   <si>
-    <t>Photoshop</t>
-  </si>
-  <si>
     <t>Illustrator</t>
   </si>
   <si>
     <t>Bootstrap</t>
   </si>
   <si>
-    <t>apex oracle</t>
-  </si>
-  <si>
     <t>Slack</t>
   </si>
   <si>
     <t>Trello</t>
   </si>
   <si>
-    <t>One drive</t>
-  </si>
-  <si>
     <t>Sujan</t>
   </si>
   <si>
@@ -94,6 +73,33 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 04/14/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 04/7/2020</t>
+  </si>
+  <si>
+    <t>Html/Css</t>
+  </si>
+  <si>
+    <t>Php</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>MS Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photoshop </t>
+  </si>
+  <si>
+    <t>Apex Oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One drive </t>
   </si>
 </sst>
 </file>
@@ -123,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -146,11 +152,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -162,6 +196,37 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,59 +541,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC9DF58-BC73-4F83-BF60-0835236DA37B}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="16" width="12.21875" customWidth="1"/>
+    <col min="17" max="17" width="11.21875" customWidth="1"/>
+    <col min="18" max="18" width="12.21875" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" customWidth="1"/>
+    <col min="21" max="21" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="4"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>15</v>
+      <c r="B2" s="14">
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>4</v>
@@ -544,10 +633,10 @@
       </c>
       <c r="G2" s="4">
         <f>AVERAGE(B2:F2)</f>
-        <v>15.4</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
+        <v>14.4</v>
+      </c>
+      <c r="I2" s="14">
+        <v>4</v>
       </c>
       <c r="J2" s="2">
         <v>4</v>
@@ -563,14 +652,32 @@
       </c>
       <c r="N2" s="4">
         <f>AVERAGE(I2:M2)</f>
-        <v>2.9</v>
+        <v>3.3</v>
+      </c>
+      <c r="P2" s="5">
+        <v>43894</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>43891</v>
+      </c>
+      <c r="R2" s="10">
+        <v>43905</v>
+      </c>
+      <c r="S2" s="11">
+        <v>43900</v>
+      </c>
+      <c r="T2" s="12">
+        <v>43905</v>
+      </c>
+      <c r="U2" s="13">
+        <v>43905</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="14">
         <v>15</v>
       </c>
       <c r="C3" s="2">
@@ -589,7 +696,7 @@
         <f t="shared" ref="G3:G16" si="0">AVERAGE(B3:F3)</f>
         <v>20</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="14">
         <v>1</v>
       </c>
       <c r="J3" s="2">
@@ -608,13 +715,31 @@
         <f t="shared" ref="N3:N16" si="1">AVERAGE(I3:M3)</f>
         <v>2.4</v>
       </c>
+      <c r="P3" s="5">
+        <v>43925</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>43935</v>
+      </c>
+      <c r="R3" s="10">
+        <v>43920</v>
+      </c>
+      <c r="S3" s="11">
+        <v>43935</v>
+      </c>
+      <c r="T3" s="12">
+        <v>43910</v>
+      </c>
+      <c r="U3" s="13">
+        <v>43935</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10</v>
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14">
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -630,9 +755,9 @@
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="14">
         <v>4</v>
       </c>
       <c r="J4" s="2">
@@ -651,13 +776,27 @@
         <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
+      <c r="P4" s="5">
+        <v>43919</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>43897</v>
+      </c>
+      <c r="R4" s="10">
+        <v>43910</v>
+      </c>
+      <c r="S4" s="11">
+        <v>43897</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
+        <v>10</v>
       </c>
       <c r="C5" s="2">
         <v>15</v>
@@ -673,10 +812,10 @@
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
@@ -692,15 +831,31 @@
       </c>
       <c r="N5" s="4">
         <f t="shared" si="1"/>
-        <v>2.1</v>
-      </c>
+        <v>1.9</v>
+      </c>
+      <c r="P5" s="5">
+        <v>43889</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>43910</v>
+      </c>
+      <c r="R5" s="10">
+        <v>43923</v>
+      </c>
+      <c r="S5" s="11">
+        <v>43931</v>
+      </c>
+      <c r="T5" s="12">
+        <v>43915</v>
+      </c>
+      <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10</v>
+    <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="14">
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>15</v>
@@ -716,10 +871,10 @@
       </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>10.6</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
+        <v>11.6</v>
+      </c>
+      <c r="I6" s="14">
+        <v>2</v>
       </c>
       <c r="J6" s="2">
         <v>2</v>
@@ -735,14 +890,30 @@
       </c>
       <c r="N6" s="4">
         <f t="shared" si="1"/>
-        <v>1.9</v>
-      </c>
+        <v>2.1</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>43920</v>
+      </c>
+      <c r="R6" s="10">
+        <v>43926</v>
+      </c>
+      <c r="S6" s="11">
+        <v>43928</v>
+      </c>
+      <c r="T6" s="12">
+        <v>43895</v>
+      </c>
+      <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="14">
         <v>5</v>
       </c>
       <c r="C7" s="2">
@@ -761,8 +932,8 @@
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="I7" s="1">
-        <v>4</v>
+      <c r="I7" s="14">
+        <v>2</v>
       </c>
       <c r="J7" s="2">
         <v>3</v>
@@ -778,14 +949,30 @@
       </c>
       <c r="N7" s="4">
         <f t="shared" si="1"/>
-        <v>2.8</v>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>43891</v>
+      </c>
+      <c r="R7" s="10">
+        <v>43914</v>
+      </c>
+      <c r="S7" s="11">
+        <v>43920</v>
+      </c>
+      <c r="T7" s="12">
+        <v>43895</v>
+      </c>
+      <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14">
         <v>3</v>
       </c>
       <c r="C8" s="2">
@@ -804,7 +991,7 @@
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="14">
         <v>3</v>
       </c>
       <c r="J8" s="2">
@@ -823,12 +1010,28 @@
         <f t="shared" si="1"/>
         <v>3.1</v>
       </c>
+      <c r="P8" s="5">
+        <v>43918</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>43895</v>
+      </c>
+      <c r="R8" s="7">
+        <v>43895</v>
+      </c>
+      <c r="S8" s="6">
+        <v>43895</v>
+      </c>
+      <c r="T8" s="12">
+        <v>43891</v>
+      </c>
+      <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="15">
         <v>10</v>
       </c>
       <c r="C9" s="2">
@@ -847,7 +1050,7 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="15">
         <v>4</v>
       </c>
       <c r="J9" s="2">
@@ -866,10 +1069,26 @@
         <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
+      <c r="P9" s="6">
+        <v>43931</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>43909</v>
+      </c>
+      <c r="R9" s="10">
+        <v>43915</v>
+      </c>
+      <c r="S9" s="10">
+        <v>43905</v>
+      </c>
+      <c r="T9" s="12">
+        <v>43895</v>
+      </c>
+      <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>10</v>
@@ -909,10 +1128,26 @@
         <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
+      <c r="P10" s="7">
+        <v>43895</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>43895</v>
+      </c>
+      <c r="R10" s="7">
+        <v>43897</v>
+      </c>
+      <c r="S10" s="7">
+        <v>43895</v>
+      </c>
+      <c r="T10" s="12">
+        <v>43915</v>
+      </c>
+      <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
         <v>8</v>
@@ -952,10 +1187,26 @@
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
+      <c r="P11" s="7">
+        <v>43910</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>43895</v>
+      </c>
+      <c r="R11" s="10">
+        <v>43897</v>
+      </c>
+      <c r="S11" s="10">
+        <v>43894</v>
+      </c>
+      <c r="T11" s="12">
+        <v>43915</v>
+      </c>
+      <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>12</v>
@@ -995,10 +1246,26 @@
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
+      <c r="P12" s="7">
+        <v>43936</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>43933</v>
+      </c>
+      <c r="R12" s="10">
+        <v>43905</v>
+      </c>
+      <c r="S12" s="10">
+        <v>43917</v>
+      </c>
+      <c r="T12" s="12">
+        <v>43920</v>
+      </c>
+      <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
         <v>8</v>
@@ -1038,10 +1305,26 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="P13" s="7">
+        <v>43923</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>43935</v>
+      </c>
+      <c r="R13" s="10">
+        <v>43910</v>
+      </c>
+      <c r="S13" s="10">
+        <v>43926</v>
+      </c>
+      <c r="T13" s="12">
+        <v>43895</v>
+      </c>
+      <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
@@ -1081,10 +1364,26 @@
         <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
+      <c r="P14" s="7">
+        <v>43895</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>43890</v>
+      </c>
+      <c r="R14" s="10">
+        <v>43890</v>
+      </c>
+      <c r="S14" s="10">
+        <v>43890</v>
+      </c>
+      <c r="T14" s="12">
+        <v>43881</v>
+      </c>
+      <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
@@ -1124,10 +1423,26 @@
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
+      <c r="P15" s="7">
+        <v>43895</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>43890</v>
+      </c>
+      <c r="R15" s="10">
+        <v>43890</v>
+      </c>
+      <c r="S15" s="10">
+        <v>43891</v>
+      </c>
+      <c r="T15" s="12">
+        <v>43881</v>
+      </c>
+      <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
@@ -1167,6 +1482,22 @@
         <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
+      <c r="P16" s="7">
+        <v>43895</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>43890</v>
+      </c>
+      <c r="R16" s="10">
+        <v>43890</v>
+      </c>
+      <c r="S16" s="10">
+        <v>43893</v>
+      </c>
+      <c r="T16" s="12">
+        <v>43881</v>
+      </c>
+      <c r="U16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/average.xlsx
+++ b/average.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68A47E9-EB08-4473-A863-213F1B9B1671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B99727-7976-4FDE-8F09-04E2E2D8114C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="13836" windowHeight="7176" xr2:uid="{F0D48B38-CB74-437F-9CA6-583EC3D3D74A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0D48B38-CB74-437F-9CA6-583EC3D3D74A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>API</t>
   </si>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC9DF58-BC73-4F83-BF60-0835236DA37B}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +554,7 @@
     <col min="18" max="18" width="12.21875" customWidth="1"/>
     <col min="19" max="19" width="11.6640625" customWidth="1"/>
     <col min="20" max="20" width="13.88671875" customWidth="1"/>
-    <col min="21" max="21" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -655,7 +655,7 @@
         <v>3.3</v>
       </c>
       <c r="P2" s="5">
-        <v>43894</v>
+        <v>43919</v>
       </c>
       <c r="Q2" s="8">
         <v>43891</v>
@@ -670,7 +670,7 @@
         <v>43905</v>
       </c>
       <c r="U2" s="13">
-        <v>43905</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -734,7 +734,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -776,8 +776,8 @@
         <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
-      <c r="P4" s="5">
-        <v>43919</v>
+      <c r="P4" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="Q4" s="8">
         <v>43897</v>
@@ -788,10 +788,14 @@
       <c r="S4" s="11">
         <v>43897</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="4"/>
+      <c r="T4" s="12">
+        <v>43911</v>
+      </c>
+      <c r="U4" s="13">
+        <v>43928</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
@@ -833,8 +837,8 @@
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="P5" s="5">
-        <v>43889</v>
+      <c r="P5" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="Q5" s="8">
         <v>43910</v>
@@ -848,7 +852,9 @@
       <c r="T5" s="12">
         <v>43915</v>
       </c>
-      <c r="U5" s="4"/>
+      <c r="U5" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
@@ -892,8 +898,8 @@
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>14</v>
+      <c r="P6" s="5">
+        <v>43894</v>
       </c>
       <c r="Q6" s="8">
         <v>43920</v>
@@ -907,7 +913,9 @@
       <c r="T6" s="12">
         <v>43895</v>
       </c>
-      <c r="U6" s="4"/>
+      <c r="U6" s="11">
+        <v>43928</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
@@ -951,8 +959,8 @@
         <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>15</v>
+      <c r="P7" s="5">
+        <v>43889</v>
       </c>
       <c r="Q7" s="8">
         <v>43891</v>
@@ -966,7 +974,9 @@
       <c r="T7" s="12">
         <v>43895</v>
       </c>
-      <c r="U7" s="4"/>
+      <c r="U7" s="10">
+        <v>43914</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
@@ -1025,7 +1035,9 @@
       <c r="T8" s="12">
         <v>43891</v>
       </c>
-      <c r="U8" s="4"/>
+      <c r="U8" s="5">
+        <v>43918</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -1084,7 +1096,9 @@
       <c r="T9" s="12">
         <v>43895</v>
       </c>
-      <c r="U9" s="4"/>
+      <c r="U9" s="6">
+        <v>43931</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1143,7 +1157,9 @@
       <c r="T10" s="12">
         <v>43915</v>
       </c>
-      <c r="U10" s="4"/>
+      <c r="U10" s="12">
+        <v>43915</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -1202,7 +1218,9 @@
       <c r="T11" s="12">
         <v>43915</v>
       </c>
-      <c r="U11" s="4"/>
+      <c r="U11" s="12">
+        <v>43915</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -1261,7 +1279,9 @@
       <c r="T12" s="12">
         <v>43920</v>
       </c>
-      <c r="U12" s="4"/>
+      <c r="U12" s="7">
+        <v>43936</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -1320,7 +1340,9 @@
       <c r="T13" s="12">
         <v>43895</v>
       </c>
-      <c r="U13" s="4"/>
+      <c r="U13" s="8">
+        <v>43935</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1379,7 +1401,9 @@
       <c r="T14" s="12">
         <v>43881</v>
       </c>
-      <c r="U14" s="4"/>
+      <c r="U14" s="7">
+        <v>43895</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -1438,7 +1462,9 @@
       <c r="T15" s="12">
         <v>43881</v>
       </c>
-      <c r="U15" s="4"/>
+      <c r="U15" s="7">
+        <v>43895</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -1497,7 +1523,9 @@
       <c r="T16" s="12">
         <v>43881</v>
       </c>
-      <c r="U16" s="4"/>
+      <c r="U16" s="7">
+        <v>43895</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
